--- a/data-raw/kulkarni.sorghum.xlsx
+++ b/data-raw/kulkarni.sorghum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF3554-079C-4F87-9DAD-0A5C078B07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9672"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1930" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -56,9 +57,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,9 +77,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -117,7 +117,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -223,7 +223,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -365,23 +365,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>144</v>
       </c>
@@ -395,7 +395,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>171</v>
       </c>
@@ -409,7 +409,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>156</v>
       </c>
@@ -423,7 +423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>134</v>
       </c>
@@ -437,7 +437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>180</v>
       </c>
@@ -451,7 +451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>172</v>
       </c>
@@ -465,7 +465,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>175</v>
       </c>
@@ -479,7 +479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>186</v>
       </c>
@@ -493,7 +493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>174</v>
       </c>
@@ -507,7 +507,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>144</v>
       </c>
@@ -521,7 +521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>172</v>
       </c>
@@ -535,7 +535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>142</v>
       </c>
@@ -549,7 +549,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>176</v>
       </c>
@@ -563,7 +563,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>171</v>
       </c>
@@ -577,7 +577,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>178</v>
       </c>
@@ -591,7 +591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>203</v>
       </c>
@@ -605,7 +605,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>186</v>
       </c>
@@ -619,7 +619,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>187</v>
       </c>
@@ -633,7 +633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>150</v>
       </c>
@@ -647,7 +647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>182</v>
       </c>
@@ -661,7 +661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>177</v>
       </c>
@@ -675,7 +675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>168</v>
       </c>
@@ -689,7 +689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>187</v>
       </c>
@@ -703,7 +703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>189</v>
       </c>
@@ -717,7 +717,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>164</v>
       </c>
@@ -731,7 +731,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>151</v>
       </c>
@@ -745,7 +745,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>120</v>
       </c>
@@ -759,7 +759,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>138</v>
       </c>
@@ -773,7 +773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>126</v>
       </c>
@@ -787,7 +787,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>100</v>
       </c>
@@ -801,7 +801,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>119</v>
       </c>
@@ -815,7 +815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>104</v>
       </c>
@@ -829,7 +829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>120</v>
       </c>
@@ -843,7 +843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>98</v>
       </c>
@@ -857,7 +857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>125</v>
       </c>
@@ -871,7 +871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>127</v>
       </c>
@@ -885,7 +885,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>114</v>
       </c>
@@ -899,7 +899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>125</v>
       </c>
@@ -913,7 +913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>95</v>
       </c>
@@ -927,7 +927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>132</v>
       </c>
@@ -947,16 +947,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>113</v>
       </c>
@@ -970,7 +970,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>73</v>
       </c>
@@ -984,7 +984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>75</v>
       </c>
@@ -998,7 +998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>66</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>74</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>65</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>83</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>65</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>70</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>89</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>105</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>88</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>77</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>90</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>87</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>70</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>73</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>65</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>70</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>65</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>75</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>70</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>88</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>49</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>71</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>77</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>64</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>59</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>65</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>62</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>72</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>60</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>98</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>85</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>84</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>90</v>
       </c>
@@ -1522,20 +1522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
         <v>96</v>
       </c>
       <c r="B1">
@@ -1548,8 +1548,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>97</v>
       </c>
       <c r="B2">
@@ -1562,8 +1562,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>93</v>
       </c>
       <c r="B3">
@@ -1576,8 +1576,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>70</v>
       </c>
       <c r="B4">
@@ -1590,8 +1590,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>71</v>
       </c>
       <c r="B5">
@@ -1604,8 +1604,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>97</v>
       </c>
       <c r="B6">
@@ -1618,8 +1618,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>90</v>
       </c>
       <c r="B7">
@@ -1632,8 +1632,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>81</v>
       </c>
       <c r="B8">
@@ -1646,8 +1646,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>96</v>
       </c>
       <c r="B9">
@@ -1660,8 +1660,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>96</v>
       </c>
       <c r="B10">
@@ -1674,8 +1674,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>108</v>
       </c>
       <c r="B11">
@@ -1688,8 +1688,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>97</v>
       </c>
       <c r="B12">
@@ -1702,8 +1702,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>104</v>
       </c>
       <c r="B13">
@@ -1716,8 +1716,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>121</v>
       </c>
       <c r="B14">
@@ -1730,8 +1730,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>159</v>
       </c>
       <c r="B15">
@@ -1744,8 +1744,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>163</v>
       </c>
       <c r="B16">
@@ -1758,8 +1758,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>163</v>
       </c>
       <c r="B17">
@@ -1772,8 +1772,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>136</v>
       </c>
       <c r="B18">
@@ -1786,8 +1786,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>174</v>
       </c>
       <c r="B19">
@@ -1800,8 +1800,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>150</v>
       </c>
       <c r="B20">
@@ -1814,8 +1814,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>176</v>
       </c>
       <c r="B21">
@@ -1828,8 +1828,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>185</v>
       </c>
       <c r="B22">
@@ -1842,8 +1842,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>253</v>
       </c>
       <c r="B23">
@@ -1856,8 +1856,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>153</v>
       </c>
       <c r="B24">
@@ -1870,8 +1870,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>197</v>
       </c>
       <c r="B25">
@@ -1884,8 +1884,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>205</v>
       </c>
       <c r="B26">
@@ -1898,8 +1898,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>160</v>
       </c>
       <c r="B27">
@@ -1912,8 +1912,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>158</v>
       </c>
       <c r="B28">
@@ -1926,8 +1926,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>176</v>
       </c>
       <c r="B29">
@@ -1940,8 +1940,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>164</v>
       </c>
       <c r="B30">
@@ -1954,8 +1954,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>147</v>
       </c>
       <c r="B31">
@@ -1968,8 +1968,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>155</v>
       </c>
       <c r="B32">
@@ -1982,8 +1982,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>165</v>
       </c>
       <c r="B33">
@@ -1996,8 +1996,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>103</v>
       </c>
       <c r="B34">
@@ -2010,8 +2010,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>152</v>
       </c>
       <c r="B35">
@@ -2024,8 +2024,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>151</v>
       </c>
       <c r="B36">
@@ -2038,8 +2038,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>186</v>
       </c>
       <c r="B37">
@@ -2052,8 +2052,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>119</v>
       </c>
       <c r="B38">
@@ -2066,8 +2066,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>133</v>
       </c>
       <c r="B39">
@@ -2080,8 +2080,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>161</v>
       </c>
       <c r="B40">
